--- a/Endpoints.xlsx
+++ b/Endpoints.xlsx
@@ -5,22 +5,36 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E065600\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Client\Flexsys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Endpoints" sheetId="1" r:id="rId1"/>
-    <sheet name="Comments" sheetId="2" r:id="rId2"/>
+    <sheet name="Desktops + Laptops Transferring" sheetId="3" r:id="rId1"/>
+    <sheet name="Printers Transferring" sheetId="4" r:id="rId2"/>
+    <sheet name="Mobile Devices Transferring" sheetId="1" r:id="rId3"/>
+    <sheet name="Other Devices or Peripherals" sheetId="5" r:id="rId4"/>
+    <sheet name="Notes" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
   <si>
     <t>Location</t>
   </si>
@@ -31,22 +45,58 @@
     <t>Model</t>
   </si>
   <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Assigned User</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Service Tag</t>
+  </si>
+  <si>
     <t>OS Version</t>
   </si>
   <si>
     <t>Age</t>
   </si>
   <si>
-    <t>Endpoint Security Products</t>
-  </si>
-  <si>
-    <t>Drive Encryption Method</t>
-  </si>
-  <si>
-    <t>Client VPN Software</t>
-  </si>
-  <si>
-    <t>Endpoint Management Tools</t>
+    <t>Warranty Expiry Date</t>
+  </si>
+  <si>
+    <t>Ownership Status</t>
+  </si>
+  <si>
+    <t>Lease Experation Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Usage Type</t>
+  </si>
+  <si>
+    <t>Owned</t>
+  </si>
+  <si>
+    <t>Shared MFP</t>
+  </si>
+  <si>
+    <t>Leased</t>
+  </si>
+  <si>
+    <t>Shared printer</t>
+  </si>
+  <si>
+    <t>Personal network printer</t>
+  </si>
+  <si>
+    <t>Personal local printer</t>
   </si>
 </sst>
 </file>
@@ -62,25 +112,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,14 +158,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -396,22 +455,263 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="8" width="23.453125" customWidth="1"/>
-    <col min="9" max="9" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="23.453125" customWidth="1"/>
+    <col min="2" max="4" width="8.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="12" width="23.453125" customWidth="1"/>
+    <col min="13" max="13" width="24.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Notes!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Notes!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Notes!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -425,58 +725,206 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Notes!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Notes!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="B14:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>